--- a/data/trans_bre/P16B05-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16B05-Edad-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B05-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16B05-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-17,02</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,02%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -642,22 +642,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-49,54; 0,0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,54; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,68</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,38</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,49</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,61%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,38%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,28%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,56; 28,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,44; 0,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 43,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,98; 40,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,44; 0,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 77,48</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,3</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,3</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,8</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,3%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,3%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,38%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,66; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,89; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,44; 25,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,66; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,89; 0,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,44; 36,46</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,64</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,98</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,28</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,54%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,47%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,8; 35,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 17,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 17,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,8; 56,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 21,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 21,3</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>12,18</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,87%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -962,22 +962,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>0,0; 34,23</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="E13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 51,96</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>-5,96</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,96%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,39%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>-14,98; -1,5</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>-4,54; 13,71</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>-14,98; -1,5</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,57; 16,45</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,62%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,21; 9,62</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,15; 3,62</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,07; 7,75</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,37; 11,15</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,15; 3,75</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,07; 8,55</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B05-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16B05-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -834,7 +834,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -914,7 +914,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -994,7 +994,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-5,96</t>
+          <t>-7,86</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1014,12 +1014,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-5,96%</t>
+          <t>-7,86%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>1,35%</t>
         </is>
       </c>
     </row>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-14,98; -1,5</t>
+          <t>-20,54; -2,48</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1052,12 +1052,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 13,71</t>
+          <t>-9,56; 28,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-14,98; -1,5</t>
+          <t>-20,54; -2,48</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1067,14 +1067,14 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 16,45</t>
+          <t>-9,89; 41,36</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>-3,37</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>-3,37%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1122,124 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-17,7; 0,0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>-17,7; 0,0</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1,46</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1,57%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0,15%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>2,62%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>-4,21; 9,62</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>-1,15; 3,62</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>-1,07; 7,75</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>-4,37; 11,15</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>-1,15; 3,75</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>-1,07; 8,55</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1169,6 +1249,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P16B05-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16B05-Edad-trans_bre.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-49,54; 0,0</t>
+          <t>-45,33; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-49,54; 0,0</t>
+          <t>-45,33; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-20,56; 28,23</t>
+          <t>-17,86; 29,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-27,44; 0,0</t>
+          <t>-28,64; 0,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 43,66</t>
+          <t>0,0; 44,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-22,98; 40,72</t>
+          <t>-19,05; 43,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-27,44; 0,0</t>
+          <t>-28,64; 0,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 77,48</t>
+          <t>0,0; 81,43</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-28,66; 0,0</t>
+          <t>-27,54; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,89; 0,0</t>
+          <t>-12,65; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 25,97</t>
+          <t>-8,6; 24,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-28,66; 0,0</t>
+          <t>-27,54; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,89; 0,0</t>
+          <t>-12,65; 0,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 36,46</t>
+          <t>-8,75; 33,8</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 35,22</t>
+          <t>-5,74; 37,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,72</t>
+          <t>0,0; 20,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,56</t>
+          <t>0,0; 20,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 56,71</t>
+          <t>-5,75; 61,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,53</t>
+          <t>0,0; 25,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,3</t>
+          <t>0,0; 26,44</t>
         </is>
       </c>
     </row>
@@ -962,7 +962,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 34,23</t>
+          <t>0,0; 34,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 51,96</t>
+          <t>0,0; 52,73</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-20,54; -2,48</t>
+          <t>-19,2; -2,46</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1052,12 +1052,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-9,56; 28,0</t>
+          <t>-10,86; 28,32</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-20,54; -2,48</t>
+          <t>-19,2; -2,46</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1067,7 +1067,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-9,89; 41,36</t>
+          <t>-10,92; 41,98</t>
         </is>
       </c>
     </row>
@@ -1122,7 +1122,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-17,7; 0,0</t>
+          <t>-14,21; 0,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-17,7; 0,0</t>
+          <t>-14,21; 0,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 9,62</t>
+          <t>-4,02; 9,92</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 3,62</t>
+          <t>-1,16; 2,94</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 7,75</t>
+          <t>-0,86; 8,13</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 11,15</t>
+          <t>-4,08; 11,56</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 3,75</t>
+          <t>-1,16; 3,03</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 8,55</t>
+          <t>-0,88; 8,95</t>
         </is>
       </c>
     </row>
